--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742096</v>
+        <v>111742070</v>
       </c>
       <c r="B6" t="n">
-        <v>94125</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,27 +1149,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1177,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331779.6127968954</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R6" t="n">
-        <v>6626798.429951042</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1227,7 +1226,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På både ved och på lodyta</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742077</v>
+        <v>111742170</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1298,10 +1297,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331735.1116598135</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R7" t="n">
-        <v>6626820.629936518</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,11 +1343,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1376,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742151</v>
+        <v>111742101</v>
       </c>
       <c r="B8" t="n">
-        <v>95524</v>
+        <v>94134</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1382,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221944</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331814.6184995985</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R8" t="n">
-        <v>6626778.67820756</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742184</v>
+        <v>111742151</v>
       </c>
       <c r="B9" t="n">
-        <v>93159</v>
+        <v>95524</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1503,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2666</v>
+        <v>221944</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1537,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331833.6062344447</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R9" t="n">
-        <v>6626784.887086328</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1583,11 +1577,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1615,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742070</v>
+        <v>111742184</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>93159</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,30 +1616,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>2666</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1658,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331735.1116598135</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R10" t="n">
-        <v>6626820.629936518</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1708,7 +1698,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1736,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742101</v>
+        <v>111742096</v>
       </c>
       <c r="B11" t="n">
-        <v>94134</v>
+        <v>94125</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1752,21 +1742,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1828,6 +1818,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På både ved och på lodyta</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1853,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742181</v>
+        <v>111742077</v>
       </c>
       <c r="B12" t="n">
-        <v>93158</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1869,27 +1864,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2667</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1897,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331833.6062344447</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R12" t="n">
-        <v>6626784.887086328</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,7 +1941,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1975,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742170</v>
+        <v>111742181</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>93158</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,26 +1985,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>2667</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2018,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331846.7251686137</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.294692003</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2064,6 +2059,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742070</v>
+        <v>111742151</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>95524</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,30 +1145,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>221944</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1176,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331735.1116598135</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R6" t="n">
-        <v>6626820.629936518</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1222,11 +1223,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742170</v>
+        <v>111742077</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1297,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331846.7251686137</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R7" t="n">
-        <v>6626784.294692003</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1343,6 +1339,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742101</v>
+        <v>111742170</v>
       </c>
       <c r="B8" t="n">
-        <v>94134</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,31 +1383,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331779.6127968954</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R8" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742151</v>
+        <v>111742184</v>
       </c>
       <c r="B9" t="n">
-        <v>95524</v>
+        <v>93159</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1503,21 +1503,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221944</v>
+        <v>2666</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331814.6184995985</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R9" t="n">
-        <v>6626778.67820756</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,6 +1577,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742184</v>
+        <v>111742070</v>
       </c>
       <c r="B10" t="n">
-        <v>93159</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,31 +1621,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2666</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331833.6062344447</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R10" t="n">
-        <v>6626784.887086328</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1726,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742096</v>
+        <v>111742101</v>
       </c>
       <c r="B11" t="n">
-        <v>94125</v>
+        <v>94134</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,21 +1746,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,11 +1822,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På både ved och på lodyta</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1848,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742077</v>
+        <v>111742181</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>93158</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1864,26 +1863,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>2667</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331735.1116598135</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R12" t="n">
-        <v>6626820.629936518</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1969,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742181</v>
+        <v>111742096</v>
       </c>
       <c r="B13" t="n">
-        <v>93158</v>
+        <v>94125</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,25 +1981,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2667</v>
+        <v>54</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331833.6062344447</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.887086328</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742151</v>
+        <v>111742101</v>
       </c>
       <c r="B6" t="n">
-        <v>95524</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221944</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331814.6184995985</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R6" t="n">
-        <v>6626778.67820756</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742077</v>
+        <v>111742070</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742170</v>
+        <v>111742077</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,21 +1387,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331846.7251686137</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R8" t="n">
-        <v>6626784.294692003</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1460,6 +1460,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1487,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742184</v>
+        <v>111742096</v>
       </c>
       <c r="B9" t="n">
-        <v>93159</v>
+        <v>94125</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,25 +1504,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2666</v>
+        <v>54</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331833.6062344447</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R9" t="n">
-        <v>6626784.887086328</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1581,7 +1586,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1609,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742070</v>
+        <v>111742138</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>92683</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,30 +1626,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>2362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1652,10 +1658,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331735.1116598135</v>
+        <v>331789.362964866</v>
       </c>
       <c r="R10" t="n">
-        <v>6626820.629936518</v>
+        <v>6626790.418441398</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1698,11 +1704,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1730,10 +1731,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742101</v>
+        <v>111742184</v>
       </c>
       <c r="B11" t="n">
-        <v>94134</v>
+        <v>93159</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,25 +1743,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>2666</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1774,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331779.6127968954</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R11" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1820,6 +1821,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1847,10 +1853,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742181</v>
+        <v>111742151</v>
       </c>
       <c r="B12" t="n">
-        <v>93158</v>
+        <v>95524</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1863,21 +1869,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2667</v>
+        <v>221944</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1891,10 +1897,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331833.6062344447</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R12" t="n">
-        <v>6626784.887086328</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1937,11 +1943,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1969,10 +1970,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742096</v>
+        <v>111742181</v>
       </c>
       <c r="B13" t="n">
-        <v>94125</v>
+        <v>93158</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,25 +1982,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>2667</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2013,10 +2014,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331779.6127968954</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R13" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,7 +2064,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På både ved och på lodyta</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2091,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742138</v>
+        <v>111742170</v>
       </c>
       <c r="B14" t="n">
-        <v>92683</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2107,27 +2108,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2362</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331789.362964866</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R14" t="n">
-        <v>6626790.418441398</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742101</v>
+        <v>111742138</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>92683</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>2362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331779.6127968954</v>
+        <v>331789.362964866</v>
       </c>
       <c r="R6" t="n">
-        <v>6626798.429951042</v>
+        <v>6626790.418441398</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742070</v>
+        <v>111742077</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742077</v>
+        <v>111742184</v>
       </c>
       <c r="B8" t="n">
-        <v>78605</v>
+        <v>93159</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,26 +1387,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>2666</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1414,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331735.1116598135</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R8" t="n">
-        <v>6626820.629936518</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1465,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1492,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742096</v>
+        <v>111742151</v>
       </c>
       <c r="B9" t="n">
-        <v>94125</v>
+        <v>95524</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1505,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>221944</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331779.6127968954</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R9" t="n">
-        <v>6626798.429951042</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1582,11 +1583,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1614,10 +1610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742138</v>
+        <v>111742181</v>
       </c>
       <c r="B10" t="n">
-        <v>92683</v>
+        <v>93158</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,21 +1626,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2362</v>
+        <v>2667</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1658,10 +1654,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331789.362964866</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R10" t="n">
-        <v>6626790.418441398</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1704,6 +1700,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1731,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742184</v>
+        <v>111742070</v>
       </c>
       <c r="B11" t="n">
-        <v>93159</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,31 +1744,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2666</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331833.6062344447</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R11" t="n">
-        <v>6626784.887086328</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1853,10 +1853,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742151</v>
+        <v>111742096</v>
       </c>
       <c r="B12" t="n">
-        <v>95524</v>
+        <v>94125</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1865,25 +1865,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221944</v>
+        <v>54</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331814.6184995985</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R12" t="n">
-        <v>6626778.67820756</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1943,6 +1943,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1970,10 +1975,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742181</v>
+        <v>111742170</v>
       </c>
       <c r="B13" t="n">
-        <v>93158</v>
+        <v>89369</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1986,27 +1991,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2667</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2014,10 +2018,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331833.6062344447</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.887086328</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,11 +2064,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2092,10 +2091,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742170</v>
+        <v>111742101</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,30 +2103,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331846.7251686137</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R14" t="n">
-        <v>6626784.294692003</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742138</v>
+        <v>111742077</v>
       </c>
       <c r="B6" t="n">
-        <v>92683</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,27 +1149,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2362</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1177,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331789.362964866</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R6" t="n">
-        <v>6626790.418441398</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,6 +1222,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742077</v>
+        <v>111742138</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>92683</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,26 +1270,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>2362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1293,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331735.1116598135</v>
+        <v>331789.362964866</v>
       </c>
       <c r="R7" t="n">
-        <v>6626820.629936518</v>
+        <v>6626790.418441398</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1339,11 +1344,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1371,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742184</v>
+        <v>111742181</v>
       </c>
       <c r="B8" t="n">
-        <v>93159</v>
+        <v>93158</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,21 +1387,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742151</v>
+        <v>111742184</v>
       </c>
       <c r="B9" t="n">
-        <v>95524</v>
+        <v>93159</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221944</v>
+        <v>2666</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1537,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331814.6184995985</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R9" t="n">
-        <v>6626778.67820756</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1583,6 +1583,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742181</v>
+        <v>111742151</v>
       </c>
       <c r="B10" t="n">
-        <v>93158</v>
+        <v>95524</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,21 +1631,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2667</v>
+        <v>221944</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1654,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331833.6062344447</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R10" t="n">
-        <v>6626784.887086328</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1700,11 +1705,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1732,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742070</v>
+        <v>111742101</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,26 +1748,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1775,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331735.1116598135</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R11" t="n">
-        <v>6626820.629936518</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1821,11 +1822,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1975,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742170</v>
+        <v>111742070</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,25 +1983,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2018,10 +2014,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331846.7251686137</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.294692003</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2064,6 +2060,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2091,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742101</v>
+        <v>111742170</v>
       </c>
       <c r="B14" t="n">
-        <v>94134</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2103,31 +2104,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331779.6127968954</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R14" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1371,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742181</v>
+        <v>111742151</v>
       </c>
       <c r="B8" t="n">
-        <v>93158</v>
+        <v>95524</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,21 +1387,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2667</v>
+        <v>221944</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331833.6062344447</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R8" t="n">
-        <v>6626784.887086328</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1461,11 +1461,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1493,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742184</v>
+        <v>111742101</v>
       </c>
       <c r="B9" t="n">
-        <v>93159</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,25 +1500,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2666</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1537,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331833.6062344447</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R9" t="n">
-        <v>6626784.887086328</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1583,11 +1578,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1615,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742151</v>
+        <v>111742184</v>
       </c>
       <c r="B10" t="n">
-        <v>95524</v>
+        <v>93159</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1631,21 +1621,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221944</v>
+        <v>2666</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1659,10 +1649,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331814.6184995985</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R10" t="n">
-        <v>6626778.67820756</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1705,6 +1695,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1732,10 +1727,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742101</v>
+        <v>111742170</v>
       </c>
       <c r="B11" t="n">
-        <v>94134</v>
+        <v>89369</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,31 +1739,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1776,10 +1770,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331779.6127968954</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R11" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1843,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742096</v>
+        <v>111742181</v>
       </c>
       <c r="B12" t="n">
-        <v>94125</v>
+        <v>93158</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,25 +1855,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>2667</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1893,10 +1887,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331779.6127968954</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R12" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1943,7 +1937,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På både ved och på lodyta</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1971,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742070</v>
+        <v>111742096</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>94125</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,26 +1981,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>54</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2014,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331735.1116598135</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R13" t="n">
-        <v>6626820.629936518</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2064,7 +2059,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2092,10 +2087,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742170</v>
+        <v>111742070</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,25 +2099,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2135,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331846.7251686137</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R14" t="n">
-        <v>6626784.294692003</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2181,6 +2176,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742077</v>
+        <v>111742138</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>92683</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,26 +1149,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>2362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1176,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331735.1116598135</v>
+        <v>331789.362964866</v>
       </c>
       <c r="R6" t="n">
-        <v>6626820.629936518</v>
+        <v>6626790.418441398</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1222,11 +1223,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742138</v>
+        <v>111742070</v>
       </c>
       <c r="B7" t="n">
-        <v>92683</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,31 +1262,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2362</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1298,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331789.362964866</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R7" t="n">
-        <v>6626790.418441398</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,6 +1339,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1371,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742151</v>
+        <v>111742181</v>
       </c>
       <c r="B8" t="n">
-        <v>95524</v>
+        <v>93158</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,21 +1387,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221944</v>
+        <v>2667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331814.6184995985</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R8" t="n">
-        <v>6626778.67820756</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1461,6 +1461,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1488,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742101</v>
+        <v>111742096</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>94125</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1580,6 +1585,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På både ved och på lodyta</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1605,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742184</v>
+        <v>111742151</v>
       </c>
       <c r="B10" t="n">
-        <v>93159</v>
+        <v>95524</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,21 +1631,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2666</v>
+        <v>221944</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1649,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331833.6062344447</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R10" t="n">
-        <v>6626784.887086328</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1695,11 +1705,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1843,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742181</v>
+        <v>111742077</v>
       </c>
       <c r="B12" t="n">
-        <v>93158</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1859,27 +1864,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2667</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1887,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331833.6062344447</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R12" t="n">
-        <v>6626784.887086328</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1937,7 +1941,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1965,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742096</v>
+        <v>111742184</v>
       </c>
       <c r="B13" t="n">
-        <v>94125</v>
+        <v>93159</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,25 +1981,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>2666</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2009,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331779.6127968954</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R13" t="n">
-        <v>6626798.429951042</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,7 +2063,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På både ved och på lodyta</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2087,10 +2091,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742070</v>
+        <v>111742101</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2103,26 +2107,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2130,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331735.1116598135</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R14" t="n">
-        <v>6626820.629936518</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2176,11 +2181,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742138</v>
+        <v>111742096</v>
       </c>
       <c r="B6" t="n">
-        <v>92683</v>
+        <v>94125</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2362</v>
+        <v>54</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331789.362964866</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R6" t="n">
-        <v>6626790.418441398</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,6 +1223,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742070</v>
+        <v>111742184</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>93159</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,30 +1267,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>2666</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1293,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331735.1116598135</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R7" t="n">
-        <v>6626820.629936518</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1343,7 +1349,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1493,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742096</v>
+        <v>111742101</v>
       </c>
       <c r="B9" t="n">
-        <v>94125</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1515,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1585,11 +1591,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På både ved och på lodyta</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1615,10 +1616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742151</v>
+        <v>111742077</v>
       </c>
       <c r="B10" t="n">
-        <v>95524</v>
+        <v>78605</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1631,27 +1632,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221944</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331814.6184995985</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R10" t="n">
-        <v>6626778.67820756</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1705,6 +1705,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1732,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742170</v>
+        <v>111742070</v>
       </c>
       <c r="B11" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,25 +1749,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1775,10 +1780,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331846.7251686137</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R11" t="n">
-        <v>6626784.294692003</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1821,6 +1826,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1848,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742077</v>
+        <v>111742138</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>92683</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1864,26 +1874,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>2362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1891,10 +1902,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331735.1116598135</v>
+        <v>331789.362964866</v>
       </c>
       <c r="R12" t="n">
-        <v>6626820.629936518</v>
+        <v>6626790.418441398</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1937,11 +1948,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1969,10 +1975,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742184</v>
+        <v>111742170</v>
       </c>
       <c r="B13" t="n">
-        <v>93159</v>
+        <v>89369</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,27 +1991,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2666</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2013,10 +2018,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331833.6062344447</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.887086328</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,11 +2064,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2091,10 +2091,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742101</v>
+        <v>111742151</v>
       </c>
       <c r="B14" t="n">
-        <v>94134</v>
+        <v>95524</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2103,25 +2103,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>221944</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331779.6127968954</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R14" t="n">
-        <v>6626798.429951042</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742096</v>
+        <v>111742077</v>
       </c>
       <c r="B6" t="n">
-        <v>94125</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,31 +1145,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1177,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331779.6127968954</v>
+        <v>331735.1116598135</v>
       </c>
       <c r="R6" t="n">
-        <v>6626798.429951042</v>
+        <v>6626820.629936518</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1227,7 +1226,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På både ved och på lodyta</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742184</v>
+        <v>111742170</v>
       </c>
       <c r="B7" t="n">
-        <v>93159</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,27 +1270,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2666</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1299,10 +1297,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331833.6062344447</v>
+        <v>331846.7251686137</v>
       </c>
       <c r="R7" t="n">
-        <v>6626784.887086328</v>
+        <v>6626784.294692003</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,11 +1343,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1377,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742181</v>
+        <v>111742101</v>
       </c>
       <c r="B8" t="n">
-        <v>93158</v>
+        <v>94134</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1389,25 +1382,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2667</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331833.6062344447</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R8" t="n">
-        <v>6626784.887086328</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1467,11 +1460,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1499,10 +1487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742101</v>
+        <v>111742151</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>95524</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,25 +1499,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>221944</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1543,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331779.6127968954</v>
+        <v>331814.6184995985</v>
       </c>
       <c r="R9" t="n">
-        <v>6626798.429951042</v>
+        <v>6626778.67820756</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1616,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742077</v>
+        <v>111742096</v>
       </c>
       <c r="B10" t="n">
-        <v>78605</v>
+        <v>94125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,30 +1616,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>54</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1659,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331735.1116598135</v>
+        <v>331779.6127968954</v>
       </c>
       <c r="R10" t="n">
-        <v>6626820.629936518</v>
+        <v>6626798.429951042</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1709,7 +1698,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1858,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742138</v>
+        <v>111742184</v>
       </c>
       <c r="B12" t="n">
-        <v>92683</v>
+        <v>93159</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1874,16 +1863,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2362</v>
+        <v>2666</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1902,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331789.362964866</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R12" t="n">
-        <v>6626790.418441398</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,6 +1937,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1975,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742170</v>
+        <v>111742181</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>93158</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,26 +1985,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>2667</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2018,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331846.7251686137</v>
+        <v>331833.6062344447</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.294692003</v>
+        <v>6626784.887086328</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2064,6 +2059,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2091,10 +2091,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742151</v>
+        <v>111742138</v>
       </c>
       <c r="B14" t="n">
-        <v>95524</v>
+        <v>92683</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2107,21 +2107,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221944</v>
+        <v>2362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331814.6184995985</v>
+        <v>331789.362964866</v>
       </c>
       <c r="R14" t="n">
-        <v>6626778.67820756</v>
+        <v>6626790.418441398</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742077</v>
+        <v>111742184</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>93159</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,26 +1149,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>2666</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1176,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331735.1116598135</v>
+        <v>331834</v>
       </c>
       <c r="R6" t="n">
-        <v>6626820.629936518</v>
+        <v>6626785</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1209,24 +1210,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742170</v>
+        <v>111742070</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1297,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331846.7251686137</v>
+        <v>331735</v>
       </c>
       <c r="R7" t="n">
-        <v>6626784.294692003</v>
+        <v>6626821</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1330,19 +1321,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742101</v>
+        <v>111742151</v>
       </c>
       <c r="B8" t="n">
-        <v>94134</v>
+        <v>95524</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,25 +1368,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>221944</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1414,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331779.6127968954</v>
+        <v>331815</v>
       </c>
       <c r="R8" t="n">
-        <v>6626798.429951042</v>
+        <v>6626779</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1447,19 +1433,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1487,10 +1463,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742151</v>
+        <v>111742181</v>
       </c>
       <c r="B9" t="n">
-        <v>95524</v>
+        <v>93158</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1503,21 +1479,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221944</v>
+        <v>2667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1507,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331814.6184995985</v>
+        <v>331834</v>
       </c>
       <c r="R9" t="n">
-        <v>6626778.67820756</v>
+        <v>6626785</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,19 +1540,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1575,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742096</v>
+        <v>111742138</v>
       </c>
       <c r="B10" t="n">
-        <v>94125</v>
+        <v>92683</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,25 +1587,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
+        <v>2362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1619,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331779.6127968954</v>
+        <v>331789</v>
       </c>
       <c r="R10" t="n">
-        <v>6626798.429951042</v>
+        <v>6626790</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1681,24 +1652,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1726,10 +1682,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742070</v>
+        <v>111742077</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1738,25 +1694,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1725,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331735.1116598135</v>
+        <v>331735</v>
       </c>
       <c r="R11" t="n">
-        <v>6626820.629936518</v>
+        <v>6626821</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1802,19 +1758,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1847,10 +1793,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742184</v>
+        <v>111742101</v>
       </c>
       <c r="B12" t="n">
-        <v>93159</v>
+        <v>94134</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1859,25 +1805,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2666</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1891,10 +1837,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331833.6062344447</v>
+        <v>331780</v>
       </c>
       <c r="R12" t="n">
-        <v>6626784.887086328</v>
+        <v>6626798</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1924,24 +1870,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1969,10 +1900,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742181</v>
+        <v>111742170</v>
       </c>
       <c r="B13" t="n">
-        <v>93158</v>
+        <v>89369</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,27 +1916,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2667</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2013,10 +1943,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331833.6062344447</v>
+        <v>331847</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784.887086328</v>
+        <v>6626784</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2046,24 +1976,9 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2091,10 +2006,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742138</v>
+        <v>111742096</v>
       </c>
       <c r="B14" t="n">
-        <v>92683</v>
+        <v>94125</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2103,25 +2018,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2362</v>
+        <v>54</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2135,10 +2050,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331789.362964866</v>
+        <v>331780</v>
       </c>
       <c r="R14" t="n">
-        <v>6626790.418441398</v>
+        <v>6626798</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2168,19 +2083,14 @@
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 60949-2018.xlsx
+++ b/artfynd/A 60949-2018.xlsx
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111742184</v>
+        <v>111742138</v>
       </c>
       <c r="B6" t="n">
-        <v>93159</v>
+        <v>92683</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2666</v>
+        <v>2362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grov fjädermossa</t>
+          <t>Blek stjärnmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neckera crispa</t>
+          <t>Mnium stellare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>331834</v>
+        <v>331789</v>
       </c>
       <c r="R6" t="n">
-        <v>6626785</v>
+        <v>6626790</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1213,11 +1213,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111742070</v>
+        <v>111742101</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,26 +1256,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1288,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>331735</v>
+        <v>331780</v>
       </c>
       <c r="R7" t="n">
-        <v>6626821</v>
+        <v>6626798</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1324,11 +1320,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1356,10 +1347,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111742151</v>
+        <v>111742170</v>
       </c>
       <c r="B8" t="n">
-        <v>95524</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,27 +1363,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221944</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1400,10 +1390,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>331815</v>
+        <v>331847</v>
       </c>
       <c r="R8" t="n">
-        <v>6626779</v>
+        <v>6626784</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1463,10 +1453,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111742181</v>
+        <v>111742070</v>
       </c>
       <c r="B9" t="n">
-        <v>93158</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1475,31 +1465,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2667</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1507,10 +1496,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>331834</v>
+        <v>331735</v>
       </c>
       <c r="R9" t="n">
-        <v>6626785</v>
+        <v>6626821</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1547,7 +1536,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I bergsbrant</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1575,10 +1564,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111742138</v>
+        <v>111742096</v>
       </c>
       <c r="B10" t="n">
-        <v>92683</v>
+        <v>94125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1587,25 +1576,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2362</v>
+        <v>54</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blek stjärnmossa</t>
+          <t>Skogstrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mnium stellare</t>
+          <t>Anastrophyllum michauxii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(F.Weber.) H.Buch</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1619,10 +1608,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>331789</v>
+        <v>331780</v>
       </c>
       <c r="R10" t="n">
-        <v>6626790</v>
+        <v>6626798</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1655,6 +1644,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På både ved och på lodyta</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1682,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111742077</v>
+        <v>111742151</v>
       </c>
       <c r="B11" t="n">
-        <v>78605</v>
+        <v>95524</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1698,26 +1692,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>221944</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1725,10 +1720,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>331735</v>
+        <v>331815</v>
       </c>
       <c r="R11" t="n">
-        <v>6626821</v>
+        <v>6626779</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1761,11 +1756,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På rönn</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1793,10 +1783,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111742101</v>
+        <v>111742184</v>
       </c>
       <c r="B12" t="n">
-        <v>94134</v>
+        <v>93159</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1805,25 +1795,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>2666</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Grov fjädermossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Neckera crispa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1837,10 +1827,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>331780</v>
+        <v>331834</v>
       </c>
       <c r="R12" t="n">
-        <v>6626798</v>
+        <v>6626785</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1873,6 +1863,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1900,10 +1895,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111742170</v>
+        <v>111742077</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>78605</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1916,21 +1911,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1943,10 +1938,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>331847</v>
+        <v>331735</v>
       </c>
       <c r="R13" t="n">
-        <v>6626784</v>
+        <v>6626821</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1979,6 +1974,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2006,10 +2006,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111742096</v>
+        <v>111742181</v>
       </c>
       <c r="B14" t="n">
-        <v>94125</v>
+        <v>93158</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2018,25 +2018,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>2667</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogstrappmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anastrophyllum michauxii</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(F.Weber.) H.Buch</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>331780</v>
+        <v>331834</v>
       </c>
       <c r="R14" t="n">
-        <v>6626798</v>
+        <v>6626785</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På både ved och på lodyta</t>
+          <t>I bergsbrant</t>
         </is>
       </c>
       <c r="AD14" t="b">
